--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_70.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_70.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,632 +488,646 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1503759398496241</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.78, 24.86)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.738333, 15.380782)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:30.240000', '0:00:38.500000'), ('0:01:24.620000', '0:01:31.740000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:30.780000', '0:01:41.320000'), ('0:00:41.580000', '0:00:43.480000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06163522012578616</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G/5', 'D', 'B:min'], ['G/5', 'D', 'D'], ['D', 'G/5', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2833333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'A:min'], ['F', 'C', 'C'], ['C', 'F', 'C']]</t>
+          <t>[['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(21.15975, 26.895079), (39.758934, 43.938526), (19.708503, 25.501882)]</t>
+          <t>[['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(75.030045, 80.208095), (10.014172, 15.018072), (103.520929, 108.664149)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:04:02.060000', '0:04:14.260000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:04:02.220000', '0:04:06.980000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1663636363636364</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54), (8.02, 15.1)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(24.29, 28.79), (14.3, 17.65)]</t>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_79</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04618768328445748</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:09.480113', '0:00:15.412811')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.940000', '0:00:04.240000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'F:maj/C', 'C:maj']]</t>
-        </is>
+          <t>jaah_70</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1979895104895105</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'F', 'C']]</t>
+          <t>[['Ab:7', 'Db', 'Db']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(73.56, 78.16)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.560725, 10.073922)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:38.310000', '0:00:41.100000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:03:29.040000', '0:03:37.180000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07023809523809524</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F#:sus4', 'F#', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[['F:(1,5,9)', 'C', 'Bb']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[('0:00:31.005011', '0:00:35.323922')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:58.453000', '0:02:03.653000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2280405405405405</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj/G#', 'E:maj/B', 'B:7']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(209.04, 217.18), (227.46, 236.36)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61), (33.48, 42.01)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3296703296703297</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(19.602494, 26.162131)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1310924369747899</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.243, 9.12)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1180555555555556</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A', 'D']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(17.374897, 25.443832)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.605464, 12.591587)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1030405405405405</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Db', 'Db', 'Db:7']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(19.08, 27.81)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(22.947687, 29.809183)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:11.560000', '0:01:20')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3412698412698413</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(56.454081, 61.864331)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.205, 18.764)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3819444444444445</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.16, 19.2)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.32, 10.96)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B', 'E/5', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285)]</t>
+          <t>[['A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:32.380000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(224.02, 241.44)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(18.66, 21.84)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.92, 5.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.08, 43.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:45', '0:01:48.840000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
